--- a/biology/Botanique/Maesaceae/Maesaceae.xlsx
+++ b/biology/Botanique/Maesaceae/Maesaceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Maesaceae (les Maésacées en français) est une famille de plantes à fleurs dicotylédones. Elle comprend une centaine d'espèces appartenant au seul genre Maesa.
 Ce sont des lianes à feuilles persistantes, mais aussi des arbres, originaires d'Asie, d'Australie et d'Océanie, que l'on trouve dans les régions tempérées à tropicales,
@@ -512,9 +524,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom vient du genre Maesa, donné en 1775 par le naturaliste suédois Petrus Forskål, et vient de l'arabe مَعَصْ (ma'as), nom vernaculaire arabe de cette plante[1]. Le mot est peut-être dérivé du mot arabe مَعِصَ (ma'isa), « mal de pied ; pied tordu ; contracture du pied »[2] ou مَعَصَ (ma'asa), crampe, en raison de l'utilisation de l'espèce Maesa lanceolata (en) pour soulager les entorses[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom vient du genre Maesa, donné en 1775 par le naturaliste suédois Petrus Forskål, et vient de l'arabe مَعَصْ (ma'as), nom vernaculaire arabe de cette plante. Le mot est peut-être dérivé du mot arabe مَعِصَ (ma'isa), « mal de pied ; pied tordu ; contracture du pied » ou مَعَصَ (ma'asa), crampe, en raison de l'utilisation de l'espèce Maesa lanceolata (en) pour soulager les entorses.
 </t>
         </is>
       </c>
@@ -543,10 +557,12 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette famille est acceptée en classification APG II (2003), assignée à l'ordre des Ericales.
-En classification phylogénétique APG III (2009)[4], elle est incorporée à la famille Primulaceae, dans la sous-famille des Maesoideae.
+En classification phylogénétique APG III (2009), elle est incorporée à la famille Primulaceae, dans la sous-famille des Maesoideae.
 </t>
         </is>
       </c>
